--- a/unifikatsiya.xlsx
+++ b/unifikatsiya.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kapro\Downloads\Отчеты\Запасные части\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kapro\Downloads\AI\railway\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55625C19-4DBF-4F40-8972-651B2589150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66C7572-4572-4024-AC9F-75B3C9F9A1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{664827FE-2841-437C-834F-69DB60FD044F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="122">
   <si>
     <t>Вид техніки</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>Чистик</t>
-  </si>
-  <si>
-    <t>Сівалка</t>
   </si>
   <si>
     <t>Диск культивуючий</t>
@@ -805,7 +802,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -884,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -941,7 +938,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -971,7 +968,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -986,7 +983,7 @@
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -1001,7 +998,7 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -1019,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1046,7 +1043,7 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -1094,7 +1091,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
@@ -1109,7 +1106,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>28</v>
@@ -1124,7 +1121,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>28</v>
@@ -1154,7 +1151,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -1184,7 +1181,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>40</v>
@@ -1214,7 +1211,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
@@ -1244,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>45</v>
@@ -1286,7 +1283,7 @@
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>54</v>
@@ -1417,31 +1414,31 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>66</v>
+      <c r="A40" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1">
         <v>451372</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>66</v>
+      <c r="A41" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1">
         <v>451371</v>
@@ -1455,219 +1452,219 @@
         <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1">
         <v>87691879</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="1">
         <v>87460070</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="1">
         <v>87460075</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="1">
         <v>3364150</v>
@@ -1678,13 +1675,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1">
         <v>3364151</v>
@@ -1695,13 +1692,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1">
         <v>3352234</v>
@@ -1712,13 +1709,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="1">
         <v>3352235</v>
@@ -1729,16 +1726,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>58</v>
@@ -1746,16 +1743,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>58</v>
@@ -1763,129 +1760,130 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
+      <c r="A62" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
+      <c r="A66" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
+      <c r="A68" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E68" xr:uid="{E4A27233-28EC-4007-9ED3-FCD1E356DAFA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>